--- a/biology/Médecine/H_(série_télévisée)/H_(série_télévisée).xlsx
+++ b/biology/Médecine/H_(série_télévisée)/H_(série_télévisée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>H_(série_télévisée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">H est une série télévisée française en 71 épisodes de 22 minutes, créée par Abd-el-Kader Aoun, Xavier Matthieu et Éric Judor. Elle est réalisée successivement par Frédéric Berthe, Édouard Molinaro, Jean-Luc Moreau, Peter Kassovitz et Charles Nemes.
-La série est diffusée entre le 24 octobre 1998 et le 20 avril 2002 sur Canal+. Elle est ensuite rediffusée sur Canal+ en clair entre 2002 et 2004[1], Canal+ continuera de rediffuser régulièrement la série, souvent en clair, jusqu'en 2012[2],[3]. Elle est ensuite rediffusée sur les chaînes Comédie+, MCM, C8, France Ô, CStar et NRJ 12. 
+La série est diffusée entre le 24 octobre 1998 et le 20 avril 2002 sur Canal+. Elle est ensuite rediffusée sur Canal+ en clair entre 2002 et 2004, Canal+ continuera de rediffuser régulièrement la série, souvent en clair, jusqu'en 2012,. Elle est ensuite rediffusée sur les chaînes Comédie+, MCM, C8, France Ô, CStar et NRJ 12. 
 Au Québec, elle est diffusée sur TV5 Québec Canada, en Suisse sur RTS Un et en Belgique sur Club RTL puis sur AB3 et Plug TV.
-Elle devient disponible sur Netflix en 2020[4].
+Elle devient disponible sur Netflix en 2020.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>H_(série_télévisée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette série de comédie de situation (sitcom) se déroule dans un hôpital français[5] où Jamel Driddi[6], Clara Saulnier, Aymé Césaire, Sabri Saïd, Béatrice Goldberg  et Maximilien Strauss – respectivement standardiste, infirmière en chef, infirmier, brancardier (puis barman), interne et chirurgien en chef – entretiennent une ambiance farfelue, entre gaffes, plaisanteries de mauvais goût et lourdes fautes professionnelles.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette série de comédie de situation (sitcom) se déroule dans un hôpital français où Jamel Driddi, Clara Saulnier, Aymé Césaire, Sabri Saïd, Béatrice Goldberg  et Maximilien Strauss – respectivement standardiste, infirmière en chef, infirmier, brancardier (puis barman), interne et chirurgien en chef – entretiennent une ambiance farfelue, entre gaffes, plaisanteries de mauvais goût et lourdes fautes professionnelles.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>H_(série_télévisée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,14 +559,86 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jamel Debbouze aurait touché un cachet de 30 000 € par épisode pour ses performances dans la série[7],[8]. Ramzy Bedia lui aurait touché 15 000 € par jour de tournage.
-Tournage
-Les deux premières saisons ainsi que la dernière saison sont tournées aux Studios de la Montjoie, anciennement studios d'AB productions, à La Plaine-Saint-Denis, la troisième saison est tournée sur le plateau A des Studios de Boulogne, à Boulogne-Billancourt. L'hôpital visible sur les prises de vues extérieures, qui servent la plupart du temps de transitions, est l'hôpital Robert Debré situé dans le 19e arrondissement de Paris.
-Dans un entretien, Jean-Luc Bideau explique que les changements fréquents de réalisateurs de la série sont dus aux comportements exaspérants des trois acteurs principaux, comportements qu'il juge « insupportables »[9],[10].
-Fiche technique
-Création : Kader Aoun , Xavier Matthieu et Éric Judor
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jamel Debbouze aurait touché un cachet de 30 000 € par épisode pour ses performances dans la série,. Ramzy Bedia lui aurait touché 15 000 € par jour de tournage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>H_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux premières saisons ainsi que la dernière saison sont tournées aux Studios de la Montjoie, anciennement studios d'AB productions, à La Plaine-Saint-Denis, la troisième saison est tournée sur le plateau A des Studios de Boulogne, à Boulogne-Billancourt. L'hôpital visible sur les prises de vues extérieures, qui servent la plupart du temps de transitions, est l'hôpital Robert Debré situé dans le 19e arrondissement de Paris.
+Dans un entretien, Jean-Luc Bideau explique que les changements fréquents de réalisateurs de la série sont dus aux comportements exaspérants des trois acteurs principaux, comportements qu'il juge « insupportables »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>H_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Création : Kader Aoun , Xavier Matthieu et Éric Judor
 Réalisation : Frédéric Berthe, Édouard Molinaro, Jean Luc Moreau, Peter Kassovitz et Charles Nemes
 Scénario : Jean Paul Bathany, Alexandre Pesle, Frédéric Proust, Bruno Nicolini (connu également en tant que chanteur sous le nom de Bénabar)
 Direction artistique : pour Fit Productions Eric Lavaine, Pour Canal +, Michel Reynaud
@@ -577,43 +663,82 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>H_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>H_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/H_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acteurs principaux
-Jamel Debbouze : Jamel Driddi, standardiste
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Jamel Debbouze : Jamel Driddi, standardiste
 Éric Judor : Aymé Césaire, infirmier du service d'orthopédie
 Ramzy Bedia : Sabri Saïd, brancardier puis barman
 Catherine Benguigui : Béatrice Goldberg dite « Béa » (saisons 1 et 2), médecin du service d'orthopédie
 Sophie Mounicot : Clara Saulnier, infirmière en chef du service d'orthopédie
 Jean-Luc Bideau : professeur Maximilien Strauss dit « Max » ou « Professeur », chirurgien
 Linda Hardy : Charlotte Strauss (saison 3), fille du professeur Strauss et surveillante en chef
-Edgar Givry : Edgar (saison 2 à 4), directeur de l'hôpital
-Invités
-De nombreux invités, comédiens et personnalités des médias, ont fait une apparition au cours de ces quatre saisons, tels que (par ordre alphabétique) :
+Edgar Givry : Edgar (saison 2 à 4), directeur de l'hôpital</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>H_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Invités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreux invités, comédiens et personnalités des médias, ont fait une apparition au cours de ces quatre saisons, tels que (par ordre alphabétique) :
 Marie-Christine Adam (en patiente dépressive),
 Isabelle Alexis (en copine de Sabri)
 Guy Amram (en Tonio, bras droit d'un parrain mafieux)
@@ -685,57 +810,61 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>H_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>H_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/H_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>H_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>H_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/H_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Jamel Dridi
 Responsable du standard du service d'orthopédie de l'hôpital, il est prêt à tout pour gagner de l'argent et pour ce faire il est prêt à se mettre dans des situations compliquées. Il n'a pour ainsi dire aucune conscience professionnelle, n'hésitant pas à inventer des mensonges abracadabrants pour ne pas travailler ou pour s'approprier le bien d'autrui, pour dissimuler des choses dont il a honte, comme le fait qu'il vit encore chez sa mère à sa conquête du moment (Une histoire de croyance).
@@ -756,7 +885,7 @@
 Médecin interne, elle n'apparaît que dans les deux premières saisons. Archétype de la fille intelligente et sympa, mais pas très attirante, son physique ingrat et son surpoids sont pour ses collègues une source inépuisable de vannes et de moqueries en tout genre.
 Béa possède un goût prononcé pour la grande littérature, les causes humanitaires et le bricolage. Elle est sans aucun doute le plus sain des personnages d'un point de vue mental, en tout cas la plus équilibrée. Cela ne l'empêche pas d'avoir certains traumatismes : elle peut par exemple revivre un souvenir d'enfance où son père tue son chat et l'enferme dans le placard après coup ou le moment où elle doit « attraper la queue du Mickey » (Une histoire d'amours). Béa semble également désensibilisée à certaines formes de violence : elle explique que quand elle était petite, elle vivait dans une ferme chez sa grand-mère et qu'elle disséquait les animaux, auxquels elle arrachait les yeux et le cœur (Une histoire de lapin).
 La grande naïveté de Béa et son désespoir lié à l’idée de rencontrer l’âme-sœur lui valent de se faire escroquer par un conducteur indélicat. Elle est ensuite confrontée aux conséquences d'une cuite dont elle n'a aucun souvenir. En éternel désespoir de pouvoir rencontrer l'homme de sa vie, elle croit enfin le trouver en la personne de Jean-François Nguyen, avocat vietnamien, mais leur idylle sera interrompue : si le marié l'a plaquée le jour du mariage à cause de Sabri qui avait saboté la robe, l'avocat était également un coureur de jupons moins intéressé par Béa que par ses collègues et amies.
-Béa est d'origine juive ashkénaze de par son nom Goldberg ou par les prénoms qu'elle souhaite donner à son bébé hypothétique : Salomon et Abraham[11]. Son appartenance à la communauté juive est confirmée par Jamel lorsqu'il lui parle de l'enterrement de sa grand-mère auquel elle a refusé de se présenter, estimant que c'était une vieille radine (Une histoire de mari).
+Béa est d'origine juive ashkénaze de par son nom Goldberg ou par les prénoms qu'elle souhaite donner à son bébé hypothétique : Salomon et Abraham. Son appartenance à la communauté juive est confirmée par Jamel lorsqu'il lui parle de l'enterrement de sa grand-mère auquel elle a refusé de se présenter, estimant que c'était une vieille radine (Une histoire de mari).
 Clara Saulnier
 Infirmière en chef du service d'orthopédie, fortement cynique, dominatrice et un peu marâtre, elle se plaît à donner des ordres. Elle est caractérisée par son sadisme, aimant bien maltraiter ses collègues.
 Pas vraiment laide, Clara est perçue aux yeux de ses camarades - son sale caractère aidant - comme une vieille greluche. Elle dispose d'un passé de prostituée, d'alcoolique et a même tourné dans un film pornographique, La chienne du tipi. Sa relation avec Aymé est toute particulière, oscillant entre la haine et le désir sexuel avec l'auto proclamé étalon antillais du service (son ancêtre a en effet été l'esclavagiste de l’aïeul d’Aymé).
@@ -777,34 +906,39 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>H_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>H_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/H_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Produits dérivés</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>DVD
-Saison 1 (3 octobre 2005)
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>DVD</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Saison 1 (3 octobre 2005)
 20 épisodes
 4 DVD / Éditeur : Studio Canal / Langues et ST : Français Dolby Digital 2.0 / Tous publics / Format : 4/3, Format cinéma respecté 1.33, Format DVD-9,/ Couleur / Durée : 455 minutes
 Saison 2 (3 octobre 2005)
